--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shireen.M\Documents\UiPath\StudioWebProjects\3d5cf6b1-70d1-44cb-86d2-d39b9a461eaa\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Documents\UiPath\Shireen_Capstone_5\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01A0E804-0AA6-4FE4-8FC9-8459F4B3D943}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5AC12B8-17BC-496E-95AA-FAA369F9DD36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5010" yWindow="3540" windowWidth="18000" windowHeight="9360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -278,9 +278,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -318,7 +318,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -424,7 +424,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -566,7 +566,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -577,15 +577,15 @@
   <dimension ref="A1:Z998"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="43.5703125" customWidth="1"/>
+    <col min="1" max="1" width="43.54296875" customWidth="1"/>
     <col min="2" max="2" width="43" customWidth="1"/>
-    <col min="3" max="3" width="81.42578125" customWidth="1"/>
-    <col min="4" max="26" width="8.7109375" customWidth="1"/>
+    <col min="3" max="3" width="81.453125" customWidth="1"/>
+    <col min="4" max="26" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -633,7 +633,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="45">
+    <row r="3" spans="1:26" ht="43.5">
       <c r="A3" s="2" t="s">
         <v>30</v>
       </c>
@@ -645,7 +645,7 @@
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="5" spans="1:26" ht="30">
+    <row r="5" spans="1:26" ht="29">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -1658,18 +1658,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Z988"/>
+  <dimension ref="A1:Z987"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="41" customWidth="1"/>
     <col min="2" max="2" width="51" customWidth="1"/>
-    <col min="3" max="3" width="75.42578125" customWidth="1"/>
-    <col min="4" max="26" width="8.7109375" customWidth="1"/>
+    <col min="3" max="3" width="75.453125" customWidth="1"/>
+    <col min="4" max="26" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -1706,7 +1706,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="30">
+    <row r="2" spans="1:26" ht="29">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1717,7 +1717,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="45">
+    <row r="3" spans="1:26" ht="43.5">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -1831,7 +1831,7 @@
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="17" spans="1:3" ht="45">
+    <row r="17" spans="1:3" ht="29">
       <c r="A17" t="s">
         <v>39</v>
       </c>
@@ -1890,7 +1890,10 @@
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="24" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+    </row>
     <row r="25" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="26" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="27" spans="1:3" ht="14.25" customHeight="1"/>
@@ -2854,7 +2857,6 @@
     <row r="985" ht="14.25" customHeight="1"/>
     <row r="986" ht="14.25" customHeight="1"/>
     <row r="987" ht="14.25" customHeight="1"/>
-    <row r="988" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2863,16 +2865,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:Z1000"/>
+  <dimension ref="A1:Z999"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="31.85546875" customWidth="1"/>
-    <col min="2" max="2" width="30.140625" customWidth="1"/>
-    <col min="3" max="3" width="60.28515625" customWidth="1"/>
-    <col min="4" max="26" width="65.42578125" customWidth="1"/>
+    <col min="1" max="1" width="31.81640625" customWidth="1"/>
+    <col min="2" max="2" width="30.1796875" customWidth="1"/>
+    <col min="3" max="3" width="60.26953125" customWidth="1"/>
+    <col min="4" max="26" width="65.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -2911,7 +2915,10 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="2" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+    </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="5" spans="1:26" ht="14.25" customHeight="1"/>
@@ -3909,7 +3916,6 @@
     <row r="997" ht="14.25" customHeight="1"/>
     <row r="998" ht="14.25" customHeight="1"/>
     <row r="999" ht="14.25" customHeight="1"/>
-    <row r="1000" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Documents\UiPath\Shireen_Capstone_5\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5AC12B8-17BC-496E-95AA-FAA369F9DD36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B1285F2-409C-4CBF-B0DD-EC7BAB142298}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="69">
   <si>
     <t>Name</t>
   </si>
@@ -199,6 +199,39 @@
   </si>
   <si>
     <t>AcmeUpdate</t>
+  </si>
+  <si>
+    <t>TimeOut</t>
+  </si>
+  <si>
+    <t>LoginPageNotLoading</t>
+  </si>
+  <si>
+    <t>ACME Login page not loading</t>
+  </si>
+  <si>
+    <t>IncorrectCredentials</t>
+  </si>
+  <si>
+    <t>Username and passwword is incorrect</t>
+  </si>
+  <si>
+    <t>HomePageNotLoading</t>
+  </si>
+  <si>
+    <t>ACME home page is not loading</t>
+  </si>
+  <si>
+    <t>PdfCouldnotBeDownloaded</t>
+  </si>
+  <si>
+    <t>Error while downloading the PDF</t>
+  </si>
+  <si>
+    <t>InvoiceDetailNotAdded</t>
+  </si>
+  <si>
+    <t>Could not add the invoice detail</t>
   </si>
 </sst>
 </file>
@@ -1661,7 +1694,7 @@
   <dimension ref="A1:Z987"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -1891,16 +1924,55 @@
       </c>
     </row>
     <row r="24" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
+      <c r="A24" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="25" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="26" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="27" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="28" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="29" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="30" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="31" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="27" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A27" t="s">
+        <v>59</v>
+      </c>
+      <c r="B27" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A28" t="s">
+        <v>61</v>
+      </c>
+      <c r="B28" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A29" t="s">
+        <v>63</v>
+      </c>
+      <c r="B29" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A30" t="s">
+        <v>65</v>
+      </c>
+      <c r="B30" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A31" t="s">
+        <v>67</v>
+      </c>
+      <c r="B31" t="s">
+        <v>68</v>
+      </c>
+    </row>
     <row r="32" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="33" ht="14.25" customHeight="1"/>
     <row r="34" ht="14.25" customHeight="1"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Documents\UiPath\Shireen_Capstone_5\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shireen.M\Documents\UiPath\Shireen_Capstone_5_a\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B1285F2-409C-4CBF-B0DD-EC7BAB142298}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AF6D00A-903A-451F-B98A-3BEF8A323A03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="87">
   <si>
     <t>Name</t>
   </si>
@@ -232,13 +232,67 @@
   </si>
   <si>
     <t>Could not add the invoice detail</t>
+  </si>
+  <si>
+    <t>AcmeCredentials1</t>
+  </si>
+  <si>
+    <t>Acme login credentials</t>
+  </si>
+  <si>
+    <t>ShireenOutlook</t>
+  </si>
+  <si>
+    <t>Outlook mail credentials</t>
+  </si>
+  <si>
+    <t>VendorInvoiceClientMail</t>
+  </si>
+  <si>
+    <t>If the tax id is not found sending the mail to the client</t>
+  </si>
+  <si>
+    <t>Url for ACME login page</t>
+  </si>
+  <si>
+    <t>Url for ACME home page</t>
+  </si>
+  <si>
+    <t>Url for ACME work items page</t>
+  </si>
+  <si>
+    <t>Url for ACME vendor search page</t>
+  </si>
+  <si>
+    <t>Url for adding invoices</t>
+  </si>
+  <si>
+    <t>Url for ACME work ites update page</t>
+  </si>
+  <si>
+    <t>Delay for check app state page</t>
+  </si>
+  <si>
+    <t>Exception message if the ACME login page is not loading</t>
+  </si>
+  <si>
+    <t>Exception message if login credentials are incorrect</t>
+  </si>
+  <si>
+    <t>Exception message if ACME home page is not loading</t>
+  </si>
+  <si>
+    <t>Exception message if pdf cannot be downloaded</t>
+  </si>
+  <si>
+    <t>Exception message if the invoice details cannot be updated</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -262,6 +316,18 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF464E55"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF464E55"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -283,7 +349,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -293,6 +359,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -311,9 +379,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -351,7 +419,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -457,7 +525,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -599,7 +667,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -609,16 +677,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="43.54296875" customWidth="1"/>
+    <col min="1" max="1" width="43.5703125" customWidth="1"/>
     <col min="2" max="2" width="43" customWidth="1"/>
-    <col min="3" max="3" width="81.453125" customWidth="1"/>
-    <col min="4" max="26" width="8.7265625" customWidth="1"/>
+    <col min="3" max="3" width="81.42578125" customWidth="1"/>
+    <col min="4" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -666,7 +734,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="43.5">
+    <row r="3" spans="1:26" ht="45">
       <c r="A3" s="2" t="s">
         <v>30</v>
       </c>
@@ -678,7 +746,7 @@
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="5" spans="1:26" ht="29">
+    <row r="5" spans="1:26" ht="30">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -689,8 +757,28 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="7" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="6" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A6" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A7" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
@@ -1693,16 +1781,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z987"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="41" customWidth="1"/>
     <col min="2" max="2" width="51" customWidth="1"/>
-    <col min="3" max="3" width="75.453125" customWidth="1"/>
-    <col min="4" max="26" width="8.7265625" customWidth="1"/>
+    <col min="3" max="3" width="75.42578125" customWidth="1"/>
+    <col min="4" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -1739,7 +1827,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="29">
+    <row r="2" spans="1:26" ht="30">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1750,7 +1838,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="43.5">
+    <row r="3" spans="1:26" ht="45">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -1864,7 +1952,7 @@
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="17" spans="1:3" ht="29">
+    <row r="17" spans="1:3" ht="45">
       <c r="A17" t="s">
         <v>39</v>
       </c>
@@ -1882,6 +1970,9 @@
       <c r="B18" t="s">
         <v>47</v>
       </c>
+      <c r="C18" s="2" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="19" spans="1:3" ht="14.25" customHeight="1">
       <c r="A19" t="s">
@@ -1890,6 +1981,9 @@
       <c r="B19" t="s">
         <v>48</v>
       </c>
+      <c r="C19" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="20" spans="1:3" ht="14.25" customHeight="1">
       <c r="A20" t="s">
@@ -1898,6 +1992,9 @@
       <c r="B20" t="s">
         <v>51</v>
       </c>
+      <c r="C20" s="2" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="21" spans="1:3" ht="14.25" customHeight="1">
       <c r="A21" t="s">
@@ -1906,6 +2003,9 @@
       <c r="B21" t="s">
         <v>52</v>
       </c>
+      <c r="C21" s="2" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="22" spans="1:3" ht="14.25" customHeight="1">
       <c r="A22" t="s">
@@ -1914,6 +2014,9 @@
       <c r="B22" t="s">
         <v>54</v>
       </c>
+      <c r="C22" s="2" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="23" spans="1:3" ht="14.25" customHeight="1">
       <c r="A23" s="2" t="s">
@@ -1922,6 +2025,9 @@
       <c r="B23" t="s">
         <v>56</v>
       </c>
+      <c r="C23" s="2" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="24" spans="1:3" ht="14.25" customHeight="1">
       <c r="A24" s="2" t="s">
@@ -1929,6 +2035,9 @@
       </c>
       <c r="B24" s="2">
         <v>5</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="14.25" customHeight="1"/>
@@ -1940,6 +2049,9 @@
       <c r="B27" t="s">
         <v>60</v>
       </c>
+      <c r="C27" s="2" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="28" spans="1:3" ht="14.25" customHeight="1">
       <c r="A28" t="s">
@@ -1948,6 +2060,9 @@
       <c r="B28" t="s">
         <v>62</v>
       </c>
+      <c r="C28" s="2" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="29" spans="1:3" ht="14.25" customHeight="1">
       <c r="A29" t="s">
@@ -1956,6 +2071,9 @@
       <c r="B29" t="s">
         <v>64</v>
       </c>
+      <c r="C29" s="2" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="30" spans="1:3" ht="14.25" customHeight="1">
       <c r="A30" t="s">
@@ -1964,6 +2082,9 @@
       <c r="B30" t="s">
         <v>66</v>
       </c>
+      <c r="C30" s="2" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="31" spans="1:3" ht="14.25" customHeight="1">
       <c r="A31" t="s">
@@ -1971,6 +2092,9 @@
       </c>
       <c r="B31" t="s">
         <v>68</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="14.25" customHeight="1"/>
@@ -2940,15 +3064,15 @@
   <dimension ref="A1:Z999"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="31.81640625" customWidth="1"/>
-    <col min="2" max="2" width="30.1796875" customWidth="1"/>
-    <col min="3" max="3" width="60.26953125" customWidth="1"/>
-    <col min="4" max="26" width="65.453125" customWidth="1"/>
+    <col min="1" max="1" width="31.85546875" customWidth="1"/>
+    <col min="2" max="2" width="30.140625" customWidth="1"/>
+    <col min="3" max="3" width="60.28515625" customWidth="1"/>
+    <col min="4" max="26" width="65.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -2988,8 +3112,18 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
+      <c r="A2" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="4" spans="1:26" ht="14.25" customHeight="1"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shireen.M\Documents\UiPath\Shireen_Capstone_5_a\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AF6D00A-903A-451F-B98A-3BEF8A323A03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74E1D1CE-353A-40AF-A186-A41096F484FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="89">
   <si>
     <t>Name</t>
   </si>
@@ -286,6 +286,12 @@
   </si>
   <si>
     <t>Exception message if the invoice details cannot be updated</t>
+  </si>
+  <si>
+    <t>PdfPath</t>
+  </si>
+  <si>
+    <t>C:\Users\Shireen.M\Documents\UiPath\Shireen_Capstone_5_a\Data\Input\</t>
   </si>
 </sst>
 </file>
@@ -677,7 +683,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -1781,8 +1787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z987"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2097,7 +2103,14 @@
         <v>86</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="32" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A32" t="s">
+        <v>87</v>
+      </c>
+      <c r="B32" t="s">
+        <v>88</v>
+      </c>
+    </row>
     <row r="33" ht="14.25" customHeight="1"/>
     <row r="34" ht="14.25" customHeight="1"/>
     <row r="35" ht="14.25" customHeight="1"/>
